--- a/Labs/Excel/Labs/Lab01/Zenevich_T091_1.xlsx
+++ b/Labs/Excel/Labs/Lab01/Zenevich_T091_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asp1r\Documents\asp1rant3\GitHub Repositories\BasicsOfAlgorithmizationAndProgramming\Labs\Excel\Labs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED76F0AA-F5A8-48CC-9D1D-58FC00372A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF08211-11CE-4700-999C-21E439675688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Февраль" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="64">
   <si>
     <t>Страна</t>
   </si>
@@ -837,7 +837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFD67B2-8C41-4C9D-9C3F-CA1952255372}">
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -888,7 +888,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="26">
-        <f>D2*B2</f>
+        <f t="shared" ref="E2:E33" si="0">D2*B2</f>
         <v>7512</v>
       </c>
       <c r="F2" s="25" t="s">
@@ -912,7 +912,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="26">
-        <f>D3*B3</f>
+        <f t="shared" si="0"/>
         <v>26292</v>
       </c>
       <c r="F3" s="25" t="s">
@@ -936,7 +936,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="26">
-        <f>D4*B4</f>
+        <f t="shared" si="0"/>
         <v>26292</v>
       </c>
       <c r="F4" s="25" t="s">
@@ -960,7 +960,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="26">
-        <f>D5*B5</f>
+        <f t="shared" si="0"/>
         <v>40064</v>
       </c>
       <c r="F5" s="25" t="s">
@@ -984,7 +984,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="26">
-        <f>D6*B6</f>
+        <f t="shared" si="0"/>
         <v>43820</v>
       </c>
       <c r="F6" s="25" t="s">
@@ -1008,7 +1008,7 @@
         <v>52</v>
       </c>
       <c r="E7" s="26">
-        <f>D7*B7</f>
+        <f t="shared" si="0"/>
         <v>65104</v>
       </c>
       <c r="F7" s="25" t="s">
@@ -1032,7 +1032,7 @@
         <v>63</v>
       </c>
       <c r="E8" s="26">
-        <f>D8*B8</f>
+        <f t="shared" si="0"/>
         <v>78876</v>
       </c>
       <c r="F8" s="25" t="s">
@@ -1056,7 +1056,7 @@
         <v>65</v>
       </c>
       <c r="E9" s="26">
-        <f>D9*B9</f>
+        <f t="shared" si="0"/>
         <v>81380</v>
       </c>
       <c r="F9" s="25" t="s">
@@ -1080,7 +1080,7 @@
         <v>72</v>
       </c>
       <c r="E10" s="26">
-        <f>D10*B10</f>
+        <f t="shared" si="0"/>
         <v>90144</v>
       </c>
       <c r="F10" s="25" t="s">
@@ -1104,7 +1104,7 @@
         <v>73</v>
       </c>
       <c r="E11" s="26">
-        <f>D11*B11</f>
+        <f t="shared" si="0"/>
         <v>91396</v>
       </c>
       <c r="F11" s="25" t="s">
@@ -1128,7 +1128,7 @@
         <v>75</v>
       </c>
       <c r="E12" s="26">
-        <f>D12*B12</f>
+        <f t="shared" si="0"/>
         <v>93900</v>
       </c>
       <c r="F12" s="25" t="s">
@@ -1152,7 +1152,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="26">
-        <f>D13*B13</f>
+        <f t="shared" si="0"/>
         <v>14390</v>
       </c>
       <c r="F13" s="25" t="s">
@@ -1176,7 +1176,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="26">
-        <f>D14*B14</f>
+        <f t="shared" si="0"/>
         <v>14390</v>
       </c>
       <c r="F14" s="25" t="s">
@@ -1200,7 +1200,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="26">
-        <f>D15*B15</f>
+        <f t="shared" si="0"/>
         <v>15829</v>
       </c>
       <c r="F15" s="25" t="s">
@@ -1224,7 +1224,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="26">
-        <f>D16*B16</f>
+        <f t="shared" si="0"/>
         <v>30219</v>
       </c>
       <c r="F16" s="25" t="s">
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="E17" s="26">
-        <f>D17*B17</f>
+        <f t="shared" si="0"/>
         <v>31658</v>
       </c>
       <c r="F17" s="25" t="s">
@@ -1272,7 +1272,7 @@
         <v>40</v>
       </c>
       <c r="E18" s="26">
-        <f>D18*B18</f>
+        <f t="shared" si="0"/>
         <v>57560</v>
       </c>
       <c r="F18" s="25" t="s">
@@ -1296,7 +1296,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="26">
-        <f>D19*B19</f>
+        <f t="shared" si="0"/>
         <v>58999</v>
       </c>
       <c r="F19" s="25" t="s">
@@ -1320,7 +1320,7 @@
         <v>45</v>
       </c>
       <c r="E20" s="26">
-        <f>D20*B20</f>
+        <f t="shared" si="0"/>
         <v>64755</v>
       </c>
       <c r="F20" s="25" t="s">
@@ -1344,7 +1344,7 @@
         <v>54</v>
       </c>
       <c r="E21" s="26">
-        <f>D21*B21</f>
+        <f t="shared" si="0"/>
         <v>77706</v>
       </c>
       <c r="F21" s="25" t="s">
@@ -1368,7 +1368,7 @@
         <v>56</v>
       </c>
       <c r="E22" s="26">
-        <f>D22*B22</f>
+        <f t="shared" si="0"/>
         <v>80584</v>
       </c>
       <c r="F22" s="25" t="s">
@@ -1392,7 +1392,7 @@
         <v>57</v>
       </c>
       <c r="E23" s="26">
-        <f>D23*B23</f>
+        <f t="shared" si="0"/>
         <v>82023</v>
       </c>
       <c r="F23" s="25" t="s">
@@ -1416,7 +1416,7 @@
         <v>60</v>
       </c>
       <c r="E24" s="26">
-        <f>D24*B24</f>
+        <f t="shared" si="0"/>
         <v>86340</v>
       </c>
       <c r="F24" s="25" t="s">
@@ -1440,7 +1440,7 @@
         <v>61</v>
       </c>
       <c r="E25" s="26">
-        <f>D25*B25</f>
+        <f t="shared" si="0"/>
         <v>87779</v>
       </c>
       <c r="F25" s="25" t="s">
@@ -1464,7 +1464,7 @@
         <v>70</v>
       </c>
       <c r="E26" s="26">
-        <f>D26*B26</f>
+        <f t="shared" si="0"/>
         <v>100730</v>
       </c>
       <c r="F26" s="25" t="s">
@@ -1488,7 +1488,7 @@
         <v>70</v>
       </c>
       <c r="E27" s="26">
-        <f>D27*B27</f>
+        <f t="shared" si="0"/>
         <v>100730</v>
       </c>
       <c r="F27" s="25" t="s">
@@ -1512,7 +1512,7 @@
         <v>16</v>
       </c>
       <c r="E28" s="26">
-        <f>D28*B28</f>
+        <f t="shared" si="0"/>
         <v>12608</v>
       </c>
       <c r="F28" s="25" t="s">
@@ -1536,7 +1536,7 @@
         <v>17</v>
       </c>
       <c r="E29" s="26">
-        <f>D29*B29</f>
+        <f t="shared" si="0"/>
         <v>13396</v>
       </c>
       <c r="F29" s="25" t="s">
@@ -1560,7 +1560,7 @@
         <v>18</v>
       </c>
       <c r="E30" s="26">
-        <f>D30*B30</f>
+        <f t="shared" si="0"/>
         <v>14184</v>
       </c>
       <c r="F30" s="25" t="s">
@@ -1584,7 +1584,7 @@
         <v>19</v>
       </c>
       <c r="E31" s="26">
-        <f>D31*B31</f>
+        <f t="shared" si="0"/>
         <v>14972</v>
       </c>
       <c r="F31" s="25" t="s">
@@ -1608,7 +1608,7 @@
         <v>21</v>
       </c>
       <c r="E32" s="26">
-        <f>D32*B32</f>
+        <f t="shared" si="0"/>
         <v>16548</v>
       </c>
       <c r="F32" s="25" t="s">
@@ -1632,7 +1632,7 @@
         <v>22</v>
       </c>
       <c r="E33" s="26">
-        <f>D33*B33</f>
+        <f t="shared" si="0"/>
         <v>17336</v>
       </c>
       <c r="F33" s="25" t="s">
@@ -1656,7 +1656,7 @@
         <v>24</v>
       </c>
       <c r="E34" s="26">
-        <f>D34*B34</f>
+        <f t="shared" ref="E34:E65" si="1">D34*B34</f>
         <v>18912</v>
       </c>
       <c r="F34" s="25" t="s">
@@ -1680,7 +1680,7 @@
         <v>25</v>
       </c>
       <c r="E35" s="26">
-        <f>D35*B35</f>
+        <f t="shared" si="1"/>
         <v>19700</v>
       </c>
       <c r="F35" s="25" t="s">
@@ -1704,7 +1704,7 @@
         <v>28</v>
       </c>
       <c r="E36" s="26">
-        <f>D36*B36</f>
+        <f t="shared" si="1"/>
         <v>22064</v>
       </c>
       <c r="F36" s="25" t="s">
@@ -1728,7 +1728,7 @@
         <v>28</v>
       </c>
       <c r="E37" s="26">
-        <f>D37*B37</f>
+        <f t="shared" si="1"/>
         <v>22064</v>
       </c>
       <c r="F37" s="25" t="s">
@@ -1752,7 +1752,7 @@
         <v>29</v>
       </c>
       <c r="E38" s="26">
-        <f>D38*B38</f>
+        <f t="shared" si="1"/>
         <v>22852</v>
       </c>
       <c r="F38" s="25" t="s">
@@ -1776,7 +1776,7 @@
         <v>29</v>
       </c>
       <c r="E39" s="26">
-        <f>D39*B39</f>
+        <f t="shared" si="1"/>
         <v>22852</v>
       </c>
       <c r="F39" s="25" t="s">
@@ -1800,7 +1800,7 @@
         <v>29</v>
       </c>
       <c r="E40" s="26">
-        <f>D40*B40</f>
+        <f t="shared" si="1"/>
         <v>22852</v>
       </c>
       <c r="F40" s="25" t="s">
@@ -1824,7 +1824,7 @@
         <v>31</v>
       </c>
       <c r="E41" s="26">
-        <f>D41*B41</f>
+        <f t="shared" si="1"/>
         <v>24428</v>
       </c>
       <c r="F41" s="25" t="s">
@@ -1848,7 +1848,7 @@
         <v>40</v>
       </c>
       <c r="E42" s="26">
-        <f>D42*B42</f>
+        <f t="shared" si="1"/>
         <v>31520</v>
       </c>
       <c r="F42" s="25" t="s">
@@ -1872,7 +1872,7 @@
         <v>40</v>
       </c>
       <c r="E43" s="26">
-        <f>D43*B43</f>
+        <f t="shared" si="1"/>
         <v>31520</v>
       </c>
       <c r="F43" s="25" t="s">
@@ -1896,7 +1896,7 @@
         <v>40</v>
       </c>
       <c r="E44" s="26">
-        <f>D44*B44</f>
+        <f t="shared" si="1"/>
         <v>31520</v>
       </c>
       <c r="F44" s="25" t="s">
@@ -1920,7 +1920,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="26">
-        <f>D45*B45</f>
+        <f t="shared" si="1"/>
         <v>32308</v>
       </c>
       <c r="F45" s="25" t="s">
@@ -1944,7 +1944,7 @@
         <v>43</v>
       </c>
       <c r="E46" s="26">
-        <f>D46*B46</f>
+        <f t="shared" si="1"/>
         <v>33884</v>
       </c>
       <c r="F46" s="25" t="s">
@@ -1968,7 +1968,7 @@
         <v>45</v>
       </c>
       <c r="E47" s="26">
-        <f>D47*B47</f>
+        <f t="shared" si="1"/>
         <v>35460</v>
       </c>
       <c r="F47" s="25" t="s">
@@ -1992,7 +1992,7 @@
         <v>47</v>
       </c>
       <c r="E48" s="26">
-        <f>D48*B48</f>
+        <f t="shared" si="1"/>
         <v>37036</v>
       </c>
       <c r="F48" s="25" t="s">
@@ -2016,7 +2016,7 @@
         <v>51</v>
       </c>
       <c r="E49" s="26">
-        <f>D49*B49</f>
+        <f t="shared" si="1"/>
         <v>40188</v>
       </c>
       <c r="F49" s="25" t="s">
@@ -2040,7 +2040,7 @@
         <v>52</v>
       </c>
       <c r="E50" s="26">
-        <f>D50*B50</f>
+        <f t="shared" si="1"/>
         <v>40976</v>
       </c>
       <c r="F50" s="25" t="s">
@@ -2064,7 +2064,7 @@
         <v>54</v>
       </c>
       <c r="E51" s="26">
-        <f>D51*B51</f>
+        <f t="shared" si="1"/>
         <v>42552</v>
       </c>
       <c r="F51" s="25" t="s">
@@ -2088,7 +2088,7 @@
         <v>66</v>
       </c>
       <c r="E52" s="26">
-        <f>D52*B52</f>
+        <f t="shared" si="1"/>
         <v>52008</v>
       </c>
       <c r="F52" s="25" t="s">
@@ -2112,7 +2112,7 @@
         <v>67</v>
       </c>
       <c r="E53" s="26">
-        <f>D53*B53</f>
+        <f t="shared" si="1"/>
         <v>52796</v>
       </c>
       <c r="F53" s="25" t="s">
@@ -2136,7 +2136,7 @@
         <v>67</v>
       </c>
       <c r="E54" s="26">
-        <f>D54*B54</f>
+        <f t="shared" si="1"/>
         <v>52796</v>
       </c>
       <c r="F54" s="25" t="s">
@@ -2160,7 +2160,7 @@
         <v>67</v>
       </c>
       <c r="E55" s="26">
-        <f>D55*B55</f>
+        <f t="shared" si="1"/>
         <v>52796</v>
       </c>
       <c r="F55" s="25" t="s">
@@ -2184,7 +2184,7 @@
         <v>68</v>
       </c>
       <c r="E56" s="26">
-        <f>D56*B56</f>
+        <f t="shared" si="1"/>
         <v>53584</v>
       </c>
       <c r="F56" s="25" t="s">
@@ -2208,7 +2208,7 @@
         <v>70</v>
       </c>
       <c r="E57" s="26">
-        <f>D57*B57</f>
+        <f t="shared" si="1"/>
         <v>55160</v>
       </c>
       <c r="F57" s="25" t="s">
@@ -2232,7 +2232,7 @@
         <v>73</v>
       </c>
       <c r="E58" s="26">
-        <f>D58*B58</f>
+        <f t="shared" si="1"/>
         <v>57524</v>
       </c>
       <c r="F58" s="25" t="s">
@@ -2256,7 +2256,7 @@
         <v>74</v>
       </c>
       <c r="E59" s="26">
-        <f>D59*B59</f>
+        <f t="shared" si="1"/>
         <v>58312</v>
       </c>
       <c r="F59" s="25" t="s">
@@ -2280,7 +2280,7 @@
         <v>75</v>
       </c>
       <c r="E60" s="26">
-        <f>D60*B60</f>
+        <f t="shared" si="1"/>
         <v>59100</v>
       </c>
       <c r="F60" s="25" t="s">
@@ -2304,7 +2304,7 @@
         <v>75</v>
       </c>
       <c r="E61" s="26">
-        <f>D61*B61</f>
+        <f t="shared" si="1"/>
         <v>59100</v>
       </c>
       <c r="F61" s="25" t="s">
@@ -2328,7 +2328,7 @@
         <v>77</v>
       </c>
       <c r="E62" s="26">
-        <f>D62*B62</f>
+        <f t="shared" si="1"/>
         <v>60676</v>
       </c>
       <c r="F62" s="25" t="s">
@@ -2352,7 +2352,7 @@
         <v>80</v>
       </c>
       <c r="E63" s="26">
-        <f>D63*B63</f>
+        <f t="shared" si="1"/>
         <v>63040</v>
       </c>
       <c r="F63" s="25" t="s">
@@ -2376,7 +2376,7 @@
         <v>83</v>
       </c>
       <c r="E64" s="26">
-        <f>D64*B64</f>
+        <f t="shared" si="1"/>
         <v>65404</v>
       </c>
       <c r="F64" s="25" t="s">
@@ -2400,7 +2400,7 @@
         <v>90</v>
       </c>
       <c r="E65" s="26">
-        <f>D65*B65</f>
+        <f t="shared" si="1"/>
         <v>70920</v>
       </c>
       <c r="F65" s="25" t="s">
@@ -2424,7 +2424,7 @@
         <v>97</v>
       </c>
       <c r="E66" s="26">
-        <f>D66*B66</f>
+        <f t="shared" ref="E66:E97" si="2">D66*B66</f>
         <v>76436</v>
       </c>
       <c r="F66" s="25" t="s">
@@ -2448,7 +2448,7 @@
         <v>100</v>
       </c>
       <c r="E67" s="26">
-        <f>D67*B67</f>
+        <f t="shared" si="2"/>
         <v>78800</v>
       </c>
       <c r="F67" s="25" t="s">
@@ -2472,7 +2472,7 @@
         <v>100</v>
       </c>
       <c r="E68" s="26">
-        <f>D68*B68</f>
+        <f t="shared" si="2"/>
         <v>78800</v>
       </c>
       <c r="F68" s="25" t="s">
@@ -2496,7 +2496,7 @@
         <v>8</v>
       </c>
       <c r="E69" s="26">
-        <f>D69*B69</f>
+        <f t="shared" si="2"/>
         <v>8768</v>
       </c>
       <c r="F69" s="25" t="s">
@@ -2520,7 +2520,7 @@
         <v>31</v>
       </c>
       <c r="E70" s="26">
-        <f>D70*B70</f>
+        <f t="shared" si="2"/>
         <v>33976</v>
       </c>
       <c r="F70" s="25" t="s">
@@ -2544,7 +2544,7 @@
         <v>32</v>
       </c>
       <c r="E71" s="26">
-        <f>D71*B71</f>
+        <f t="shared" si="2"/>
         <v>35072</v>
       </c>
       <c r="F71" s="25" t="s">
@@ -2568,7 +2568,7 @@
         <v>37</v>
       </c>
       <c r="E72" s="26">
-        <f>D72*B72</f>
+        <f t="shared" si="2"/>
         <v>40552</v>
       </c>
       <c r="F72" s="25" t="s">
@@ -2592,7 +2592,7 @@
         <v>60</v>
       </c>
       <c r="E73" s="26">
-        <f>D73*B73</f>
+        <f t="shared" si="2"/>
         <v>65760</v>
       </c>
       <c r="F73" s="25" t="s">
@@ -2616,7 +2616,7 @@
         <v>61</v>
       </c>
       <c r="E74" s="26">
-        <f>D74*B74</f>
+        <f t="shared" si="2"/>
         <v>66856</v>
       </c>
       <c r="F74" s="25" t="s">
@@ -2640,7 +2640,7 @@
         <v>73</v>
       </c>
       <c r="E75" s="26">
-        <f>D75*B75</f>
+        <f t="shared" si="2"/>
         <v>80008</v>
       </c>
       <c r="F75" s="25" t="s">
@@ -2664,7 +2664,7 @@
         <v>75</v>
       </c>
       <c r="E76" s="26">
-        <f>D76*B76</f>
+        <f t="shared" si="2"/>
         <v>82200</v>
       </c>
       <c r="F76" s="25" t="s">
@@ -2688,7 +2688,7 @@
         <v>79</v>
       </c>
       <c r="E77" s="26">
-        <f>D77*B77</f>
+        <f t="shared" si="2"/>
         <v>86584</v>
       </c>
       <c r="F77" s="25" t="s">
@@ -2712,7 +2712,7 @@
         <v>11</v>
       </c>
       <c r="E78" s="26">
-        <f>D78*B78</f>
+        <f t="shared" si="2"/>
         <v>11352</v>
       </c>
       <c r="F78" s="25" t="s">
@@ -2736,7 +2736,7 @@
         <v>14</v>
       </c>
       <c r="E79" s="26">
-        <f>D79*B79</f>
+        <f t="shared" si="2"/>
         <v>14448</v>
       </c>
       <c r="F79" s="25" t="s">
@@ -2760,7 +2760,7 @@
         <v>18</v>
       </c>
       <c r="E80" s="26">
-        <f>D80*B80</f>
+        <f t="shared" si="2"/>
         <v>18576</v>
       </c>
       <c r="F80" s="25" t="s">
@@ -2784,7 +2784,7 @@
         <v>28</v>
       </c>
       <c r="E81" s="26">
-        <f>D81*B81</f>
+        <f t="shared" si="2"/>
         <v>28896</v>
       </c>
       <c r="F81" s="25" t="s">
@@ -2808,7 +2808,7 @@
         <v>51</v>
       </c>
       <c r="E82" s="26">
-        <f>D82*B82</f>
+        <f t="shared" si="2"/>
         <v>52632</v>
       </c>
       <c r="F82" s="25" t="s">
@@ -2832,7 +2832,7 @@
         <v>55</v>
       </c>
       <c r="E83" s="26">
-        <f>D83*B83</f>
+        <f t="shared" si="2"/>
         <v>56760</v>
       </c>
       <c r="F83" s="25" t="s">
@@ -2856,7 +2856,7 @@
         <v>56</v>
       </c>
       <c r="E84" s="26">
-        <f>D84*B84</f>
+        <f t="shared" si="2"/>
         <v>57792</v>
       </c>
       <c r="F84" s="25" t="s">
@@ -2880,7 +2880,7 @@
         <v>64</v>
       </c>
       <c r="E85" s="26">
-        <f>D85*B85</f>
+        <f t="shared" si="2"/>
         <v>66048</v>
       </c>
       <c r="F85" s="25" t="s">
@@ -2904,7 +2904,7 @@
         <v>64</v>
       </c>
       <c r="E86" s="26">
-        <f>D86*B86</f>
+        <f t="shared" si="2"/>
         <v>66048</v>
       </c>
       <c r="F86" s="25" t="s">
@@ -2928,7 +2928,7 @@
         <v>75</v>
       </c>
       <c r="E87" s="26">
-        <f>D87*B87</f>
+        <f t="shared" si="2"/>
         <v>77400</v>
       </c>
       <c r="F87" s="25" t="s">
@@ -2952,7 +2952,7 @@
         <v>77</v>
       </c>
       <c r="E88" s="26">
-        <f>D88*B88</f>
+        <f t="shared" si="2"/>
         <v>79464</v>
       </c>
       <c r="F88" s="25" t="s">
@@ -2976,7 +2976,7 @@
         <v>79</v>
       </c>
       <c r="E89" s="26">
-        <f>D89*B89</f>
+        <f t="shared" si="2"/>
         <v>81528</v>
       </c>
       <c r="F89" s="25" t="s">
@@ -3000,7 +3000,7 @@
         <v>81</v>
       </c>
       <c r="E90" s="26">
-        <f>D90*B90</f>
+        <f t="shared" si="2"/>
         <v>83592</v>
       </c>
       <c r="F90" s="25" t="s">
@@ -3024,7 +3024,7 @@
         <v>84</v>
       </c>
       <c r="E91" s="26">
-        <f>D91*B91</f>
+        <f t="shared" si="2"/>
         <v>86688</v>
       </c>
       <c r="F91" s="25" t="s">
@@ -3048,7 +3048,7 @@
         <v>85</v>
       </c>
       <c r="E92" s="26">
-        <f>D92*B92</f>
+        <f t="shared" si="2"/>
         <v>87720</v>
       </c>
       <c r="F92" s="25" t="s">
@@ -3072,7 +3072,7 @@
         <v>91</v>
       </c>
       <c r="E93" s="26">
-        <f>D93*B93</f>
+        <f t="shared" si="2"/>
         <v>93912</v>
       </c>
       <c r="F93" s="25" t="s">
@@ -3096,7 +3096,7 @@
         <v>97</v>
       </c>
       <c r="E94" s="26">
-        <f>D94*B94</f>
+        <f t="shared" si="2"/>
         <v>100104</v>
       </c>
       <c r="F94" s="25" t="s">
@@ -3117,7 +3117,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3206,16 +3206,94 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{F125E359-8823-45DE-B2FE-0721B436FF2A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:C7" xr:uid="{F125E359-8823-45DE-B2FE-0721B436FF2A}">
       <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
         <mc:Choice Requires="x12ac">
           <x12ac:list>"Твикс, Марс, Сникерс"</x12ac:list>
@@ -3836,7 +3914,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
